--- a/_Doc/TrackBug.xlsx
+++ b/_Doc/TrackBug.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$I$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet7!$A$1:$J$81</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="188">
   <si>
     <t>select isdelete, * from orders where ordercode='SO58/19353';</t>
   </si>
@@ -281,6 +294,303 @@
   </si>
   <si>
     <t>16 Dec 2015 ลบใบขายแล้ว copy มาทำใหม่ sn ไม่ปิด</t>
+  </si>
+  <si>
+    <t>select * from product where ProductCode ='H1035-Q7553A'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select Orders.OrderID, Orders.OrderCode,Orders.isdelete,SerialNumber.* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from SerialNumber </t>
+  </si>
+  <si>
+    <t>left outer join Orders on Orders.OrderID=SerialNumber.OrderID</t>
+  </si>
+  <si>
+    <t>where ProductID = 1396 order by SerialNumberID desc;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select Orders.OrderID, Orders.OrderCode,Orders.isdelete,productlist.IsDelete, productlist.* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from productlist </t>
+  </si>
+  <si>
+    <t>left outer join Orders on Orders.OrderID=ProductList.RefID</t>
+  </si>
+  <si>
+    <t>where productid=  1396 order by ProductListID desc</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t>select * from product where ProductCode ='H1035-CE285A'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select Orders.OrderID,orders.OrderDate, Orders.OrderCode,Orders.isdelete,SerialNumber.* </t>
+  </si>
+  <si>
+    <t>where ProductID = 1447 order by SerialNumberID desc;</t>
+  </si>
+  <si>
+    <t>select Orders.OrderID,orders.OrderDate, Orders.OrderCode,Orders.isdelete,productlist.IsDelete,productlist.Units, productlist.* ,orders.CreateTime,Orders.ModifiedTime</t>
+  </si>
+  <si>
+    <t>inner join Orders on Orders.OrderID=ProductList.RefID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where productid=  1447 </t>
+  </si>
+  <si>
+    <t>and (RefTable in ('StockIn','UpdateStock')</t>
+  </si>
+  <si>
+    <t>or ( RefTable in ('SellOrders')  and LocationDTLID=11 ) )</t>
+  </si>
+  <si>
+    <t>order by ProductListID desc</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>SO58/19805</t>
+  </si>
+  <si>
+    <t>SO58/19804</t>
+  </si>
+  <si>
+    <t>ST-00354</t>
+  </si>
+  <si>
+    <t>ST-00353</t>
+  </si>
+  <si>
+    <t>IN58-08529</t>
+  </si>
+  <si>
+    <t>SO58/19770</t>
+  </si>
+  <si>
+    <t>SO58/19714</t>
+  </si>
+  <si>
+    <t>SO58/19670</t>
+  </si>
+  <si>
+    <t>SO58/19662</t>
+  </si>
+  <si>
+    <t>SO58/19658</t>
+  </si>
+  <si>
+    <t>SO58/19635</t>
+  </si>
+  <si>
+    <t>IN58-08389</t>
+  </si>
+  <si>
+    <t>SO58/19601</t>
+  </si>
+  <si>
+    <t>SO58/19593</t>
+  </si>
+  <si>
+    <t>SO58/19549</t>
+  </si>
+  <si>
+    <t>IN58-08315</t>
+  </si>
+  <si>
+    <t>SO58/19529</t>
+  </si>
+  <si>
+    <t>SO58/19520</t>
+  </si>
+  <si>
+    <t>SO58/19514</t>
+  </si>
+  <si>
+    <t>SO58/19511</t>
+  </si>
+  <si>
+    <t>IN58-08303</t>
+  </si>
+  <si>
+    <t>SO58/19494</t>
+  </si>
+  <si>
+    <t>SO58/19418</t>
+  </si>
+  <si>
+    <t>SO58/19416</t>
+  </si>
+  <si>
+    <t>IN58-08197</t>
+  </si>
+  <si>
+    <t>SO58/19352</t>
+  </si>
+  <si>
+    <t>SO58/19349</t>
+  </si>
+  <si>
+    <t>IN58-08184</t>
+  </si>
+  <si>
+    <t>SO58/19332</t>
+  </si>
+  <si>
+    <t>SO58/19320</t>
+  </si>
+  <si>
+    <t>SO58/19318</t>
+  </si>
+  <si>
+    <t>SO58/19311</t>
+  </si>
+  <si>
+    <t>SO58/19267</t>
+  </si>
+  <si>
+    <t>SO58/19242</t>
+  </si>
+  <si>
+    <t>SO58/19210</t>
+  </si>
+  <si>
+    <t>IN58-08042</t>
+  </si>
+  <si>
+    <t>SO58/19156</t>
+  </si>
+  <si>
+    <t>SO58/19155</t>
+  </si>
+  <si>
+    <t>IN58-08036</t>
+  </si>
+  <si>
+    <t>SO58/19137</t>
+  </si>
+  <si>
+    <t>SO58/19125</t>
+  </si>
+  <si>
+    <t>SO58/19123</t>
+  </si>
+  <si>
+    <t>SO58/19121</t>
+  </si>
+  <si>
+    <t>IN58-08022</t>
+  </si>
+  <si>
+    <t>SO58/19120</t>
+  </si>
+  <si>
+    <t>IN58-08014</t>
+  </si>
+  <si>
+    <t>SO58/19101</t>
+  </si>
+  <si>
+    <t>SO58/19073</t>
+  </si>
+  <si>
+    <t>SO58/19064</t>
+  </si>
+  <si>
+    <t>IN58-07965</t>
+  </si>
+  <si>
+    <t>IN58-07938</t>
+  </si>
+  <si>
+    <t>IN58-07936</t>
+  </si>
+  <si>
+    <t>SO58/18978</t>
+  </si>
+  <si>
+    <t>IN58-07905</t>
+  </si>
+  <si>
+    <t>SO58/18970</t>
+  </si>
+  <si>
+    <t>SO58/18963</t>
+  </si>
+  <si>
+    <t>SO58/18950</t>
+  </si>
+  <si>
+    <t>SO58/18940</t>
+  </si>
+  <si>
+    <t>SO58/18938</t>
+  </si>
+  <si>
+    <t>IN58-07884</t>
+  </si>
+  <si>
+    <t>IN58-07883</t>
+  </si>
+  <si>
+    <t>SO58/18894</t>
+  </si>
+  <si>
+    <t>SO58/18887</t>
+  </si>
+  <si>
+    <t>SO58/18876</t>
+  </si>
+  <si>
+    <t>SO58/18862</t>
+  </si>
+  <si>
+    <t>SO58/18769</t>
+  </si>
+  <si>
+    <t>IN58-07753</t>
+  </si>
+  <si>
+    <t>IN58-07741</t>
+  </si>
+  <si>
+    <t>SO58/18741</t>
+  </si>
+  <si>
+    <t>SO58/18718</t>
+  </si>
+  <si>
+    <t>SO58/18715</t>
+  </si>
+  <si>
+    <t>IN58-07714</t>
+  </si>
+  <si>
+    <t>SO58/18697</t>
+  </si>
+  <si>
+    <t>tableid</t>
+  </si>
+  <si>
+    <t>RefTable</t>
+  </si>
+  <si>
+    <t>SellOrders</t>
+  </si>
+  <si>
+    <t>UpdateStock</t>
+  </si>
+  <si>
+    <t>StockIn</t>
+  </si>
+  <si>
+    <t>LocationDTLID</t>
   </si>
 </sst>
 </file>
@@ -634,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,4 +2170,8930 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>69089</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>207760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>69087</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>207747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>69074</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <v>207668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>69073</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>207667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>69052</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>207623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>69052</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>207620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>68880</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42353</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>206998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>68618</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42350</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>206229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>68345</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>205283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>68299</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>205082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>68285</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>205046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>68156</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42346</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>204530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>68076</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42346</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>204326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>67987</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>203999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>67954</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>203867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>67698</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>202913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>67593</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>202624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>67584</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>202614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>67531</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>202553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>67454</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>202400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>67427</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>202332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>67412</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>202298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>67337</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>202110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>66935</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>200834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>66928</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>200809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>66679</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>200003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>66679</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>66600</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>199681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>66586</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>199609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>66584</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>199585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>66496</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>199245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>66444</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>199101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>66431</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>199064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>66399</v>
+      </c>
+      <c r="B35" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>198963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>66190</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42328</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>198235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>66042</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42327</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>197764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>65888</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42326</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>197397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>65653</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>196753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>65653</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>196751</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>65642</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>196727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>65634</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>196709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>65574</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>196505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>65574</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>196500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>65558</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>196455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>65504</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42322</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>196289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>65495</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>196270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>65495</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>196269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>65489</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>196245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>65488</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>196242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>65488</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>196241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>65486</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>196232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>65447</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>196103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>65447</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>196102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>65373</v>
+      </c>
+      <c r="B55" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>195853</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>65249</v>
+      </c>
+      <c r="B56" s="2">
+        <v>42320</v>
+      </c>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>195549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>65202</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42319</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>195474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>65036</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42319</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>194999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>64891</v>
+      </c>
+      <c r="B59" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>194505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>64877</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>194464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>64877</v>
+      </c>
+      <c r="B61" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>194463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>64767</v>
+      </c>
+      <c r="B62" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>194151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>64711</v>
+      </c>
+      <c r="B63" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>194048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64705</v>
+      </c>
+      <c r="B64" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>194026</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64634</v>
+      </c>
+      <c r="B65" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>193791</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64575</v>
+      </c>
+      <c r="B66" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>193640</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64537</v>
+      </c>
+      <c r="B67" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67">
+        <v>193565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64535</v>
+      </c>
+      <c r="B68" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>193561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64533</v>
+      </c>
+      <c r="B69" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <v>193554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>64532</v>
+      </c>
+      <c r="B70" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>193551</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>64532</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>24</v>
+      </c>
+      <c r="G71">
+        <v>193550</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>64308</v>
+      </c>
+      <c r="B72" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>192706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>64252</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>192589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>64197</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>192456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>64147</v>
+      </c>
+      <c r="B75" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>192315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>63559</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>190524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>63525</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C77" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>190397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>63462</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78">
+        <v>190011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>63400</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>189706</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>63301</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>189401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>63273</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>189307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>63268</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>189297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>63166</v>
+      </c>
+      <c r="B83" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>188936</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>69089</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>207760</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>69087</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>207747</v>
+      </c>
+      <c r="H3">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>69074</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <v>207668</v>
+      </c>
+      <c r="H4">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>69073</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>207667</v>
+      </c>
+      <c r="H5">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>69052</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>207623</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>69052</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>207620</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>68880</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42353</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>206998</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>68618</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42350</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>206229</v>
+      </c>
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>68345</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>205283</v>
+      </c>
+      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>68299</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>205082</v>
+      </c>
+      <c r="H11">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>68285</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>205046</v>
+      </c>
+      <c r="H12">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>68156</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42346</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>204530</v>
+      </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>68076</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42346</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>204326</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>67987</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>203999</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>67954</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>203867</v>
+      </c>
+      <c r="H16">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>67698</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>202913</v>
+      </c>
+      <c r="H17">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>67593</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>202624</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>67584</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>202614</v>
+      </c>
+      <c r="H19">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>67531</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>202553</v>
+      </c>
+      <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>67454</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>202400</v>
+      </c>
+      <c r="H21">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>67427</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>202332</v>
+      </c>
+      <c r="H22">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>67412</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>202298</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>67337</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>202110</v>
+      </c>
+      <c r="H24">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>66935</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>200834</v>
+      </c>
+      <c r="H25">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>66928</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>200809</v>
+      </c>
+      <c r="H26">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>66679</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>200003</v>
+      </c>
+      <c r="H27">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>66679</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>200001</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>66600</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>199681</v>
+      </c>
+      <c r="H29">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>66586</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>199609</v>
+      </c>
+      <c r="H30">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>66584</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>199585</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>66496</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>199245</v>
+      </c>
+      <c r="H32">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>66444</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>199101</v>
+      </c>
+      <c r="H33">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>66431</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>199064</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>66399</v>
+      </c>
+      <c r="B35" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>198963</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>66190</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42328</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>198235</v>
+      </c>
+      <c r="H36">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>66042</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42327</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>197764</v>
+      </c>
+      <c r="H37">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>65888</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42326</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>197397</v>
+      </c>
+      <c r="H38">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>65653</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>196753</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>65653</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>196751</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>65642</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>196727</v>
+      </c>
+      <c r="H41">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>65634</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>196709</v>
+      </c>
+      <c r="H42">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>65574</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>196505</v>
+      </c>
+      <c r="H43">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>65574</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>196500</v>
+      </c>
+      <c r="H44">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>65558</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>196455</v>
+      </c>
+      <c r="H45">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>65504</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42322</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>196289</v>
+      </c>
+      <c r="H46">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>65495</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>196270</v>
+      </c>
+      <c r="H47">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>65495</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>196269</v>
+      </c>
+      <c r="H48">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>65489</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>196245</v>
+      </c>
+      <c r="H49">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>65488</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>196242</v>
+      </c>
+      <c r="H50">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>65488</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>196241</v>
+      </c>
+      <c r="H51">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>65486</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>196232</v>
+      </c>
+      <c r="H52">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>65447</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>196103</v>
+      </c>
+      <c r="H53">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>65447</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>196102</v>
+      </c>
+      <c r="H54">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>65373</v>
+      </c>
+      <c r="B55" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>195853</v>
+      </c>
+      <c r="H55">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>65249</v>
+      </c>
+      <c r="B56" s="2">
+        <v>42320</v>
+      </c>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>195549</v>
+      </c>
+      <c r="H56">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>65202</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42319</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>195474</v>
+      </c>
+      <c r="H57">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>65036</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42319</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>194999</v>
+      </c>
+      <c r="H58">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>64891</v>
+      </c>
+      <c r="B59" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>194505</v>
+      </c>
+      <c r="H59">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>64877</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>194464</v>
+      </c>
+      <c r="H60">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>64877</v>
+      </c>
+      <c r="B61" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>194463</v>
+      </c>
+      <c r="H61">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>64767</v>
+      </c>
+      <c r="B62" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>194151</v>
+      </c>
+      <c r="H62">
+        <v>34</v>
+      </c>
+      <c r="I62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>64711</v>
+      </c>
+      <c r="B63" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>194048</v>
+      </c>
+      <c r="H63">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64705</v>
+      </c>
+      <c r="B64" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>194026</v>
+      </c>
+      <c r="H64">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64634</v>
+      </c>
+      <c r="B65" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>193791</v>
+      </c>
+      <c r="H65">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64575</v>
+      </c>
+      <c r="B66" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>193640</v>
+      </c>
+      <c r="H66">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64537</v>
+      </c>
+      <c r="B67" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67">
+        <v>193565</v>
+      </c>
+      <c r="H67">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64535</v>
+      </c>
+      <c r="B68" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>193561</v>
+      </c>
+      <c r="H68">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64533</v>
+      </c>
+      <c r="B69" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <v>193554</v>
+      </c>
+      <c r="H69">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>64532</v>
+      </c>
+      <c r="B70" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>193551</v>
+      </c>
+      <c r="H70">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>64532</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>24</v>
+      </c>
+      <c r="G71">
+        <v>193550</v>
+      </c>
+      <c r="H71">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>64308</v>
+      </c>
+      <c r="B72" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>192706</v>
+      </c>
+      <c r="H72">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>64252</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>192589</v>
+      </c>
+      <c r="H73">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>64197</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>192456</v>
+      </c>
+      <c r="H74">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>64147</v>
+      </c>
+      <c r="B75" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>192315</v>
+      </c>
+      <c r="H75">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>63559</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>190524</v>
+      </c>
+      <c r="H76">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>63525</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C77" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>190397</v>
+      </c>
+      <c r="H77">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>63462</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78">
+        <v>190011</v>
+      </c>
+      <c r="H78">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>63400</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>189706</v>
+      </c>
+      <c r="H79">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>63301</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>189401</v>
+      </c>
+      <c r="H80">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>63273</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>189307</v>
+      </c>
+      <c r="H81">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>63268</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>189297</v>
+      </c>
+      <c r="H82">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>63166</v>
+      </c>
+      <c r="B83" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>188936</v>
+      </c>
+      <c r="H83">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I83"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>D2-D3+D4+D5</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>69089</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>207760</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>69087</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>207747</v>
+      </c>
+      <c r="H3">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>68880</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42353</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>206998</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>68618</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>206229</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>68345</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>205283</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>68299</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>205082</v>
+      </c>
+      <c r="H7">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>68285</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>205046</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>68156</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42346</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>204530</v>
+      </c>
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>67987</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>203999</v>
+      </c>
+      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>67954</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>203867</v>
+      </c>
+      <c r="H11">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>67698</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>202913</v>
+      </c>
+      <c r="H12">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>67584</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>202614</v>
+      </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>67531</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>202553</v>
+      </c>
+      <c r="H14">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>67454</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>202400</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>67427</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>202332</v>
+      </c>
+      <c r="H16">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>67337</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>202110</v>
+      </c>
+      <c r="H17">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>66935</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>200834</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>66928</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>200809</v>
+      </c>
+      <c r="H19">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>66600</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>199681</v>
+      </c>
+      <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>66586</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>199609</v>
+      </c>
+      <c r="H21">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>66496</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>199245</v>
+      </c>
+      <c r="H22">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>66444</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>199101</v>
+      </c>
+      <c r="H23">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>66431</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>199064</v>
+      </c>
+      <c r="H24">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>66399</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>198963</v>
+      </c>
+      <c r="H25">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>66190</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42328</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>198235</v>
+      </c>
+      <c r="H26">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>66042</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42327</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>197764</v>
+      </c>
+      <c r="H27">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>65888</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42326</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>197397</v>
+      </c>
+      <c r="H28">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>65642</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>196727</v>
+      </c>
+      <c r="H29">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>65634</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>196709</v>
+      </c>
+      <c r="H30">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>65558</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>196455</v>
+      </c>
+      <c r="H31">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>184</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>65504</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42322</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>196289</v>
+      </c>
+      <c r="H32">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>65495</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>196270</v>
+      </c>
+      <c r="H33">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>65495</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>196269</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>65489</v>
+      </c>
+      <c r="B35" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>196245</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>65486</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>196232</v>
+      </c>
+      <c r="H36">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>184</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>65373</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>195853</v>
+      </c>
+      <c r="H37">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>184</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>65249</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42320</v>
+      </c>
+      <c r="C38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>195549</v>
+      </c>
+      <c r="H38">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>184</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>65202</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42319</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>195474</v>
+      </c>
+      <c r="H39">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s">
+        <v>184</v>
+      </c>
+      <c r="J39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>64767</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>194151</v>
+      </c>
+      <c r="H40">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>64705</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>194026</v>
+      </c>
+      <c r="H41">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>64634</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>193791</v>
+      </c>
+      <c r="H42">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
+        <v>184</v>
+      </c>
+      <c r="J42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>64575</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>193640</v>
+      </c>
+      <c r="H43">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s">
+        <v>184</v>
+      </c>
+      <c r="J43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>64537</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>193565</v>
+      </c>
+      <c r="H44">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>184</v>
+      </c>
+      <c r="J44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>64535</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>193561</v>
+      </c>
+      <c r="H45">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>184</v>
+      </c>
+      <c r="J45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>64308</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>192706</v>
+      </c>
+      <c r="H46">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s">
+        <v>184</v>
+      </c>
+      <c r="J46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>64252</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>192589</v>
+      </c>
+      <c r="H47">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>184</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>64197</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>192456</v>
+      </c>
+      <c r="H48">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s">
+        <v>184</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>64147</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>192315</v>
+      </c>
+      <c r="H49">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>63559</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>190524</v>
+      </c>
+      <c r="H50">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s">
+        <v>184</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>63400</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>189706</v>
+      </c>
+      <c r="H51">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>63301</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>189401</v>
+      </c>
+      <c r="H52">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s">
+        <v>184</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>63273</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>189307</v>
+      </c>
+      <c r="H53">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>63166</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>188936</v>
+      </c>
+      <c r="H54">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s">
+        <v>184</v>
+      </c>
+      <c r="J54">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>69089</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>207760</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>69087</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>207747</v>
+      </c>
+      <c r="H3">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>69074</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <v>207668</v>
+      </c>
+      <c r="H4">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>69073</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>207667</v>
+      </c>
+      <c r="H5">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>69052</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>207620</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>68880</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42353</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>206998</v>
+      </c>
+      <c r="H7">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>68618</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>206229</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>68345</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>205283</v>
+      </c>
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>68299</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>205082</v>
+      </c>
+      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>68285</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42347</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>205046</v>
+      </c>
+      <c r="H11">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>68156</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42346</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>204530</v>
+      </c>
+      <c r="H12">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>68076</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42346</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>204326</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>67987</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>203999</v>
+      </c>
+      <c r="H14">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>67954</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>203867</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>67698</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>202913</v>
+      </c>
+      <c r="H16">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>67593</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>202624</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>67584</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>202614</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>67531</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>202553</v>
+      </c>
+      <c r="H19">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>67454</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>202400</v>
+      </c>
+      <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>67427</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>202332</v>
+      </c>
+      <c r="H21">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>67412</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>202298</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>67337</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>202110</v>
+      </c>
+      <c r="H23">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>66935</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>200834</v>
+      </c>
+      <c r="H24">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>66928</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>200809</v>
+      </c>
+      <c r="H25">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>66679</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>200003</v>
+      </c>
+      <c r="H26">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>66679</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>200001</v>
+      </c>
+      <c r="H27">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>66600</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>199681</v>
+      </c>
+      <c r="H28">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>66586</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>199609</v>
+      </c>
+      <c r="H29">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>66584</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>199585</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>66496</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>199245</v>
+      </c>
+      <c r="H31">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>184</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>66444</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>199101</v>
+      </c>
+      <c r="H32">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>66431</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>199064</v>
+      </c>
+      <c r="H33">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>66399</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>198963</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>66190</v>
+      </c>
+      <c r="B35" s="2">
+        <v>42328</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>198235</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>66042</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42327</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>197764</v>
+      </c>
+      <c r="H36">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>184</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>65888</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42326</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>197397</v>
+      </c>
+      <c r="H37">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>184</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>65653</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>196753</v>
+      </c>
+      <c r="H38">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>65653</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>196751</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>65642</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>196727</v>
+      </c>
+      <c r="H40">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>65634</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>196709</v>
+      </c>
+      <c r="H41">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>65574</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>196505</v>
+      </c>
+      <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>186</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>65574</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>196500</v>
+      </c>
+      <c r="H43">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s">
+        <v>186</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>65558</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42324</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>196455</v>
+      </c>
+      <c r="H44">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>184</v>
+      </c>
+      <c r="J44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>65504</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42322</v>
+      </c>
+      <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>196289</v>
+      </c>
+      <c r="H45">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>184</v>
+      </c>
+      <c r="J45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>65495</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>196270</v>
+      </c>
+      <c r="H46">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s">
+        <v>184</v>
+      </c>
+      <c r="J46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>65495</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>196269</v>
+      </c>
+      <c r="H47">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>184</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>65489</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>196245</v>
+      </c>
+      <c r="H48">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s">
+        <v>184</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>65488</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>196242</v>
+      </c>
+      <c r="H49">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>65488</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>196241</v>
+      </c>
+      <c r="H50">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>65486</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>196232</v>
+      </c>
+      <c r="H51">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>65447</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>196103</v>
+      </c>
+      <c r="H52">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>65447</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>196102</v>
+      </c>
+      <c r="H53">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s">
+        <v>186</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>65373</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42321</v>
+      </c>
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>195853</v>
+      </c>
+      <c r="H54">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s">
+        <v>184</v>
+      </c>
+      <c r="J54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>65249</v>
+      </c>
+      <c r="B55" s="2">
+        <v>42320</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>195549</v>
+      </c>
+      <c r="H55">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s">
+        <v>184</v>
+      </c>
+      <c r="J55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>65202</v>
+      </c>
+      <c r="B56" s="2">
+        <v>42319</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>195474</v>
+      </c>
+      <c r="H56">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s">
+        <v>184</v>
+      </c>
+      <c r="J56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>65036</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42319</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>194999</v>
+      </c>
+      <c r="H57">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s">
+        <v>186</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>64891</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>194505</v>
+      </c>
+      <c r="H58">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s">
+        <v>186</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>64877</v>
+      </c>
+      <c r="B59" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>194464</v>
+      </c>
+      <c r="H59">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>64877</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42318</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>194463</v>
+      </c>
+      <c r="H60">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>64767</v>
+      </c>
+      <c r="B61" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>194151</v>
+      </c>
+      <c r="H61">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s">
+        <v>184</v>
+      </c>
+      <c r="J61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>64711</v>
+      </c>
+      <c r="B62" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>194048</v>
+      </c>
+      <c r="H62">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s">
+        <v>186</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>64705</v>
+      </c>
+      <c r="B63" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>194026</v>
+      </c>
+      <c r="H63">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s">
+        <v>184</v>
+      </c>
+      <c r="J63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64634</v>
+      </c>
+      <c r="B64" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>193791</v>
+      </c>
+      <c r="H64">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>184</v>
+      </c>
+      <c r="J64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64575</v>
+      </c>
+      <c r="B65" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>193640</v>
+      </c>
+      <c r="H65">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s">
+        <v>184</v>
+      </c>
+      <c r="J65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64537</v>
+      </c>
+      <c r="B66" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>193565</v>
+      </c>
+      <c r="H66">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s">
+        <v>184</v>
+      </c>
+      <c r="J66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64535</v>
+      </c>
+      <c r="B67" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>193561</v>
+      </c>
+      <c r="H67">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s">
+        <v>184</v>
+      </c>
+      <c r="J67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64533</v>
+      </c>
+      <c r="B68" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>19</v>
+      </c>
+      <c r="G68">
+        <v>193554</v>
+      </c>
+      <c r="H68">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s">
+        <v>186</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64532</v>
+      </c>
+      <c r="B69" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>24</v>
+      </c>
+      <c r="G69">
+        <v>193550</v>
+      </c>
+      <c r="H69">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s">
+        <v>186</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>64308</v>
+      </c>
+      <c r="B70" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>192706</v>
+      </c>
+      <c r="H70">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s">
+        <v>184</v>
+      </c>
+      <c r="J70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>64252</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42312</v>
+      </c>
+      <c r="C71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>192589</v>
+      </c>
+      <c r="H71">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s">
+        <v>184</v>
+      </c>
+      <c r="J71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>64197</v>
+      </c>
+      <c r="B72" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>192456</v>
+      </c>
+      <c r="H72">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>184</v>
+      </c>
+      <c r="J72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>64147</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42311</v>
+      </c>
+      <c r="C73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>192315</v>
+      </c>
+      <c r="H73">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s">
+        <v>184</v>
+      </c>
+      <c r="J73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>63559</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>190524</v>
+      </c>
+      <c r="H74">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s">
+        <v>184</v>
+      </c>
+      <c r="J74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>63525</v>
+      </c>
+      <c r="B75" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>190397</v>
+      </c>
+      <c r="H75">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s">
+        <v>186</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>63462</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C76" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76">
+        <v>190011</v>
+      </c>
+      <c r="H76">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s">
+        <v>186</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>63400</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>189706</v>
+      </c>
+      <c r="H77">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s">
+        <v>184</v>
+      </c>
+      <c r="J77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>63301</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42304</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>189401</v>
+      </c>
+      <c r="H78">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s">
+        <v>184</v>
+      </c>
+      <c r="J78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>63273</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>189307</v>
+      </c>
+      <c r="H79">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s">
+        <v>184</v>
+      </c>
+      <c r="J79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>63268</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>189297</v>
+      </c>
+      <c r="H80">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s">
+        <v>186</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>63166</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>188936</v>
+      </c>
+      <c r="H81">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s">
+        <v>184</v>
+      </c>
+      <c r="J81">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J81"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>